--- a/Lab/statistics.xlsx
+++ b/Lab/statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\CSMU\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\inlpfun\Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9492355-4B74-4B92-BB92-7D465533AAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122D6A5-4A3F-4035-AE3F-BB314DCD63B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{927235D6-4AA2-47C4-80A1-30F2798F7C50}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="18796" xr2:uid="{927235D6-4AA2-47C4-80A1-30F2798F7C50}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>XLNet</t>
   </si>
@@ -87,12 +87,15 @@
     <t>Fine-tuning Transformer-based Models with Rotten Tomatoes Dataset</t>
   </si>
   <si>
+    <t>EDM-RoBERTa</t>
+  </si>
+  <si>
     <r>
-      <t>RoBERTa</t>
+      <t>BERT</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -102,11 +105,11 @@
   </si>
   <si>
     <r>
-      <t>BERT</t>
+      <t>RoBERTa</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -115,13 +118,10 @@
     </r>
   </si>
   <si>
-    <t>EDM-RoBERTa</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="18"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -130,7 +130,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,27 +153,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -218,40 +226,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,347 +587,357 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="31.15" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>66.209999999999994</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>0.64</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>0.68</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="26.65" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>68.91</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>62.83</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>54.65</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>68.91</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C7" s="8">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.4" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.65" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>92.6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" s="6">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="14" spans="1:6" ht="28.9" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>93.17</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>62.83</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>89.53</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.15" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>54.65</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>86.48</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.9" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>94.76</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="22.5">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.15" customHeight="1">
+      <c r="A22" s="6">
+        <v>256</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="E22" s="6">
+        <v>92.6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>74.569999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3.61</v>
+      </c>
+      <c r="E23" s="13">
+        <v>94.76</v>
+      </c>
+      <c r="F23" s="13">
         <v>76.180000000000007</v>
       </c>
-      <c r="D7" s="11">
-        <v>0.64</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>92.6</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4">
-        <v>93.17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4">
-        <v>89.53</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4">
-        <v>86.48</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="11">
-        <v>6</v>
-      </c>
-      <c r="C17" s="11">
-        <v>94.76</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.49</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75">
-      <c r="A21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75">
-      <c r="A22" s="4">
-        <v>256</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3.83</v>
-      </c>
-      <c r="E22" s="4">
-        <v>92.6</v>
-      </c>
-      <c r="F22" s="4">
-        <v>74.569999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.61</v>
-      </c>
-      <c r="E23" s="5">
-        <v>94.76</v>
-      </c>
-      <c r="F23" s="5">
-        <v>76.180000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75">
-      <c r="A24" s="11" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>1E-3</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>3.72</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>92.1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>74.31</v>
       </c>
     </row>

--- a/Lab/statistics.xlsx
+++ b/Lab/statistics.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\inlpfun\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quert/Documents/GitHub/inlpfun/Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122D6A5-4A3F-4035-AE3F-BB314DCD63B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2185416-34F7-814D-936D-0CD332D9B272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="18796" xr2:uid="{927235D6-4AA2-47C4-80A1-30F2798F7C50}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30920" windowHeight="18800" xr2:uid="{927235D6-4AA2-47C4-80A1-30F2798F7C50}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,7 +274,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -283,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,21 +590,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C321EC0F-F6BE-4C0C-9CF4-928E63DD06A1}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F24"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -605,7 +614,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1">
+    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -623,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.15" customHeight="1">
+    <row r="3" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -631,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>66.209999999999994</v>
+        <v>0.66210000000000002</v>
       </c>
       <c r="D3" s="6">
         <v>0.64</v>
@@ -640,10 +649,11 @@
         <v>0.68</v>
       </c>
       <c r="F3" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.65" customHeight="1">
+        <f>1-C3</f>
+        <v>0.33789999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -651,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
-        <v>68.91</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="D4" s="6">
         <v>0.67</v>
@@ -660,10 +670,11 @@
         <v>0.7</v>
       </c>
       <c r="F4" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1">
+        <f t="shared" ref="F4:F7" si="0">1-C4</f>
+        <v>0.31089999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -671,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>62.83</v>
+        <v>0.62829999999999997</v>
       </c>
       <c r="D5" s="6">
         <v>0.73</v>
@@ -680,10 +691,11 @@
         <v>0.79</v>
       </c>
       <c r="F5" s="6">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>0.37170000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -691,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>54.65</v>
+        <v>0.54649999999999999</v>
       </c>
       <c r="D6" s="6">
         <v>0.8</v>
@@ -700,10 +712,11 @@
         <v>0.77</v>
       </c>
       <c r="F6" s="6">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>0.45350000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -711,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8">
-        <v>76.180000000000007</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="D7" s="8">
         <v>0.64</v>
@@ -720,10 +733,11 @@
         <v>0.62</v>
       </c>
       <c r="F7" s="8">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.25">
+        <f t="shared" si="0"/>
+        <v>0.23819999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -733,7 +747,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="24.4" customHeight="1">
+    <row r="12" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
@@ -751,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.65" customHeight="1">
+    <row r="13" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -759,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="6">
-        <v>92.6</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D13" s="6">
         <v>0.35</v>
@@ -768,10 +782,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F13" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.9" customHeight="1">
+        <f>1-C13</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -779,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6">
-        <v>93.17</v>
+        <v>0.93169999999999997</v>
       </c>
       <c r="D14" s="6">
         <v>0.22</v>
@@ -788,10 +803,11 @@
         <v>0.53</v>
       </c>
       <c r="F14" s="6">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.4" customHeight="1">
+        <f t="shared" ref="F14:F17" si="1">1-C14</f>
+        <v>6.8300000000000027E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
@@ -799,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="6">
-        <v>89.53</v>
+        <v>0.89529999999999998</v>
       </c>
       <c r="D15" s="6">
         <v>0.28000000000000003</v>
@@ -808,10 +824,11 @@
         <v>0.69</v>
       </c>
       <c r="F15" s="6">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.15" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>0.10470000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -819,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="6">
-        <v>86.48</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="D16" s="6">
         <v>0.32</v>
@@ -828,10 +845,11 @@
         <v>0.74</v>
       </c>
       <c r="F16" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.9" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>0.13519999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -839,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>94.76</v>
+        <v>0.9476</v>
       </c>
       <c r="D17" s="8">
         <v>0.27</v>
@@ -848,10 +866,11 @@
         <v>0.49</v>
       </c>
       <c r="F17" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25">
+        <f t="shared" si="1"/>
+        <v>5.2400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -861,7 +880,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="22.5">
+    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -881,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.15" customHeight="1">
+    <row r="22" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>256</v>
       </c>
@@ -901,7 +920,7 @@
         <v>74.569999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.5" customHeight="1">
+    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>13</v>
       </c>
@@ -921,7 +940,7 @@
         <v>76.180000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="27.4" customHeight="1">
+    <row r="24" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
